--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="262">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -66,7 +66,7 @@
   <si>
     <t xml:space="preserve">1. Запустить приложение.
 2. На экране загрузки виден спинер и цитата.
-3. Через некоторое время видна форма логина/пароля.</t>
+3. Через некоторое время видна форма логина/пароля и кнопка входа.</t>
   </si>
   <si>
     <t xml:space="preserve">Поля ввода логина и пароля видны и доступны,
@@ -105,12 +105,42 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. В поле "Логин" ввести логин из предусловия. 
-2. В поле "Пароль" ввести пароль из предусловия.
-3.  Нажать на кнопку "Войти".                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виден главный экран с новостями и претензиями </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Дождаться формы входа.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. В поле "Логин" ввести логин из предусловия. 
+3. В поле "Пароль" ввести пароль из предусловия.
+4.  Нажать на кнопку "Войти".                                </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Виден главный экран с новостями и претензиями. </t>
   </si>
   <si>
     <t xml:space="preserve">МХ3</t>
@@ -172,7 +202,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Сработала валидация, виден текст о неправильно введенных логине или пароле</t>
+    <t xml:space="preserve">Вход не осуществлен. Сработала валидация. Виден текст о неправильно введенных логине или пароле.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет возможности проверить отображение валидационного сообщения. На экране оно отображается, но не находится ни по тексту, ни по селектору. </t>
   </si>
   <si>
     <t xml:space="preserve">МХ4</t>
@@ -302,38 +335,13 @@
     <t xml:space="preserve">Ввeсти в поле логина правильный логин, начинающийся с нескольких пробелов, и правильный пароль.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Дождаться формы входа.
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввeсти в поле логина правильный логин, начинающийся с нескольких пробелов, и правильный пароль.
+    <t xml:space="preserve">1. Дождаться формы входа.
+2.Ввeсти в поле логина правильный логин, начинающийся с нескольких пробелов, и правильный пароль.
+3. Нажать на кнопку входа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баг.  Осуществлен вход в приложение. 
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3. Нажать на кнопку входа.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">МХ8</t>
@@ -347,10 +355,14 @@
 3. Нажать на кнопку входа.</t>
   </si>
   <si>
+    <t xml:space="preserve">Баг.  Осуществлен вход в приложение.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">МХ9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ввeсти логин с использованием букв РАЗНОГО регистра. Указать корректный пароль.</t>
+    <t xml:space="preserve">Ввeсти корректный логин с использованием букв РАЗНОГО регистра. Указать корректный пароль.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Дождаться формы входа.
@@ -380,33 +392,21 @@
 3. Нажать на кнопку "Войти".</t>
   </si>
   <si>
-    <t xml:space="preserve">Сработала валидация, виден текст о необходимости ввести логин и пароль</t>
-  </si>
-  <si>
     <t xml:space="preserve">МХ12</t>
   </si>
   <si>
     <t xml:space="preserve">Выход из приложения</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Пользователь авторизован. 
+    <t xml:space="preserve">Пользователь авторизован. 
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. В верхней панели нажать на кнопку выхода (иконка "Человек").
 2. Нажать "Выйти".</t>
   </si>
   <si>
-    <t xml:space="preserve">Видна форма входа в приложение</t>
+    <t xml:space="preserve">Видна форма входа в приложение.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ13</t>
@@ -415,20 +415,7 @@
     <t xml:space="preserve">Блок "Главная"</t>
   </si>
   <si>
-    <t xml:space="preserve">Наличие разделов "Новости" и "Завки" в главном блоке</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Пользователь авторизован. 
-</t>
-    </r>
+    <t xml:space="preserve">Наличие разделов "Новости" и "Претензии" в главном блоке</t>
   </si>
   <si>
     <t xml:space="preserve">1. Проверить наличие раздела "Новости" на главном экране. 
@@ -451,7 +438,7 @@
 2. Нажать повторно на раздел "Новости".</t>
   </si>
   <si>
-    <t xml:space="preserve">Раздел "Новости" раскрывается/сворачивается</t>
+    <t xml:space="preserve">Раздел "Новости" раскрывается/сворачивается.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ15</t>
@@ -464,7 +451,7 @@
 2. Нажать повторно на раздел "Претензии".</t>
   </si>
   <si>
-    <t xml:space="preserve">Раздел "Претензии" раскрывается/сворачивается</t>
+    <t xml:space="preserve">Раздел "Претензии" раскрывается/сворачивается.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ16</t>
@@ -476,7 +463,7 @@
     <t xml:space="preserve">1. Нажать на надпись ALL NEWS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Видны только новости</t>
+    <t xml:space="preserve">Видны только новости.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ17</t>
@@ -488,7 +475,7 @@
     <t xml:space="preserve">1. Нажать на надпись ALL CLAIMS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Видны только претензии</t>
+    <t xml:space="preserve">Видны только претензии.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ18</t>
@@ -501,7 +488,7 @@
 2. Нажать повторно на новость.</t>
   </si>
   <si>
-    <t xml:space="preserve">Новость разворачивается и сворачивается</t>
+    <t xml:space="preserve">Новость разворачивается и сворачивается.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ19</t>
@@ -540,72 +527,10 @@
 3. Нажать "Сохранить".</t>
   </si>
   <si>
-    <t xml:space="preserve">Претензия отображается на главном экране</t>
+    <t xml:space="preserve">Претензия отображается на главном экране.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка полей ввода претензии. Валидные значения (кириллические символы, текущая дата и текущее время    (циферблат), 49, 50 символов).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В разделе "Претензии" на главном экране нажать "добавить претензию" (значок "+").  
-2. Ввести валидные данные в поле "Тема".
-3. Ввести валидное ФИО с поле "Исполнитель".
-4. Нажать на поле "Дата". 
-5. Нажать на "ок" date picker. 
-6. Нажать на поле "Время". 
-7. Нажать на "ок" time picker.
-8. Вести валидные данные в поле "Описание". 
-9. Нажать "Сохранить". 
-10. Проверить, что появилась новая претензия с ранее введенными данными.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создана новая претензия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка полей ввода претензии с невалидными значениями  (латиница, цифры, специальные символы, 51 символ).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В разделе "Претензии" на главном экране нажать "добавить претензию" (значок "+").
-2. Ввести невалидные данные в поле "Тема" .
-3. Ввести невалидное ФИО с поле "Исполнитель".
-4. Нажать на поле "Дата" .
-5. Нажать на "ок" date picker .
-6. Нажать на поле "Время".
-7. Нажать на "ок" time picker .
-8. Вести валидные данные в поле "Описание".
-9. Нажать "Сохранить".                                                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Претензия с невалидными значениями не сохранена. Ограничено количесто символов для полей ввода.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фактически ограничений по символам нет. Возможен ввод более 50 символов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка полей ввода претензии с пустыми полями.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В разделе "Претензии" на главном экране нажать "добавить претензию" (значок "+"). 
-2. Оставить пустым поле "Тема" .
-3. Оставить пустым поле "Исполнитель".
-4. Оставить пустым поле "Дата".
-5. Оставить пустым поле "Время". 
-6. Оставить пустым поле "Описание" . 
-7. Нажать "Сохранить".                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Претензия с незаполненными полями не сохранена. Выходит сообщение об обязательном заполнении полей формы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ25</t>
   </si>
   <si>
     <t xml:space="preserve">Редактирование претензии с главного экрана</t>
@@ -616,13 +541,13 @@
 3. Нажать "Сохранить".</t>
   </si>
   <si>
-    <t xml:space="preserve">Изменения сохранились и видны</t>
+    <t xml:space="preserve">Изменения сохранились и видны.</t>
   </si>
   <si>
     <t xml:space="preserve">Невозможно покрыть. Кнопки изменения претензии активны, только для претензии в статусе "Open"</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ26</t>
+    <t xml:space="preserve">МХ23</t>
   </si>
   <si>
     <t xml:space="preserve">Блок "Меню"</t>
@@ -641,7 +566,7 @@
     <t xml:space="preserve">Меню имеет вкладки "Главная", "Претензии", "Новости" ,  "О приложении".</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ27</t>
+    <t xml:space="preserve">МХ24</t>
   </si>
   <si>
     <t xml:space="preserve">Переход в блок "Главная" при помощи меню</t>
@@ -653,10 +578,10 @@
 4. Выбрать пункт меню "Главная".</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход в блок "Главная" (на экране отображаются разделы "Новости" и "Претензии")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ28</t>
+    <t xml:space="preserve">Успешный переход в блок "Главная" (на экране отображаются разделы "Новости" и "Претензии").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ25</t>
   </si>
   <si>
     <t xml:space="preserve">Переход в блок "Претензии" при помощи меню</t>
@@ -666,10 +591,10 @@
 2. Выбрать пункт меню "Претензии".</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход в блок "Претензии" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ29</t>
+    <t xml:space="preserve">Успешный переход в блок "Претензии" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ26</t>
   </si>
   <si>
     <t xml:space="preserve">Переход в блок "Новости" при помощи меню</t>
@@ -679,10 +604,10 @@
 2. Выбрать пункт меню "Новости".</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход в блок "Новости" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ30</t>
+    <t xml:space="preserve">Успешный переход в блок "Новости" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ27</t>
   </si>
   <si>
     <t xml:space="preserve">Переход в блок "О приложении" при помощи меню</t>
@@ -692,21 +617,66 @@
 2. Выбрать пункт меню "О приложении".</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход в блок "О приложении" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ31</t>
+    <t xml:space="preserve">Успешный переход в блок "О приложении" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ28</t>
   </si>
   <si>
     <t xml:space="preserve">Блок "Претензии".
 Фильтрация.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Фильтрация претензий. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Кликабельность ч</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ек-боксов каждого статуса.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти на экран Претензии.
+2. Нажать кнопку фильтра.
+3. Выбрать статус поочередно каждый статус.
+4. Нажать кнопку «ок».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чек-боксы каждого из статусов кликабельны. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Фильтрация претензий. 
 Выбран статус «Открыта».</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Перейти на экран Претензии.
+    <t xml:space="preserve">2. Перейти на экран Претензии.
 2. Нажать кнопку фильтра.
 3. Выбрать статус «Открыта».
 4. Нажать кнопку «ок».</t>
@@ -715,7 +685,7 @@
     <t xml:space="preserve">Блок «Претензии» содержит только претензии в статусе «Открыта». </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ32</t>
+    <t xml:space="preserve">МХ30</t>
   </si>
   <si>
     <r>
@@ -750,7 +720,7 @@
     <t xml:space="preserve">Блок «Претензии» содержит только претензии в статусе «В процессе». </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ33</t>
+    <t xml:space="preserve">МХ31</t>
   </si>
   <si>
     <r>
@@ -785,7 +755,7 @@
     <t xml:space="preserve">Блок «Претензии» содержит только претензии в статусе «Выполнено». </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ34</t>
+    <t xml:space="preserve">МХ32</t>
   </si>
   <si>
     <r>
@@ -820,21 +790,12 @@
     <t xml:space="preserve">Блок «Претензии» содержит только претензии в статусе «Отменен». </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ35</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Фильтрация претензий. 
+    <t xml:space="preserve">МХ33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фильтрация претензий. 
 Ни один статус не выбран.
 </t>
-    </r>
   </si>
   <si>
     <r>
@@ -872,10 +833,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">На экране нет ни одной претензии, отображается «бабочка» и активна кнопка «Обновить».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ36</t>
+    <t xml:space="preserve">На экране претензий не показано ни одной претензии, отображается кнопка «Обновить».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ34</t>
   </si>
   <si>
     <r>
@@ -910,7 +871,7 @@
     <t xml:space="preserve">Блок «Претензии» содержит претензии всех возможных статусов. </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ37</t>
+    <t xml:space="preserve">МХ35</t>
   </si>
   <si>
     <t xml:space="preserve">Блок «Претензии»</t>
@@ -920,40 +881,260 @@
   </si>
   <si>
     <t xml:space="preserve">1. Перейти на экран Претензии.
-2. Нажать на претензию.
+2. Нажать на претензию в статусе «Открыта».
 3. Нажать кнопку редактирования претензии.
-4. Нажать "Сохранить".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ38</t>
+4. Внести правки в каждое поле претензии.
+5. Нажать "Сохранить".
+6. Нажать «Исполнить».</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Все поля претензии доступны для редактирования. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Изменения сохранились и видны. Отредактированная претензия переходит в статус «Исполнено».</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Редактирование доступно только для </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">претензий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> в статусе «Открыта».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ36</t>
   </si>
   <si>
     <t xml:space="preserve">Добавление комментария в претензии</t>
   </si>
   <si>
     <t xml:space="preserve">1. Перейти на экран Претензии.
-2. Открыть существующую претензию.
+2. Создать новую претензию.
 3. Нажать на значок ("+") создания комментария.
 4. Ввести данные.
-5. Нажать "Сохранить".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комментарий появился и виден</t>
+5. Нажать "Сохранить".
+6. Нажать на «Сбросить», ввести комментарий.
+7. Нажать на «Сохранить».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарии появились и видны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ37</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Создание претензии с экрана претензий с заполнением полей валидными значениями </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(латиница, кириллица, символы, цифры, пробелы, текущая дата и текущее время (циферблат), прошедшие даты, 49, 50 символов).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Перейти на экран Претензии.
+2. Нажать на кнопку создания претензии (значок «+»).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3. Ввести валидные данные в поле "Тема".
+4. Ввести валидное ФИО с поле "Исполнитель".
+5. Нажать на поле "Дата".
+6. Ввести прошедшую дату. 
+7. Нажать на поле "Время". 
+8. Нажать на "ок" time picker, выбрав текущее время.
+9. Вести валидные данные в поле "Описание". 
+10. Нажать "Сохранить". 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Претензия отображается на экране претензий.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Создание претензии с экрана претензий с заполнением полей невалидными значениями </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(дата &gt;24 часов и &gt;60 минут, 51 символ).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Перейти на экран "Претензии" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Нажать на кнопку создания претензии (значок «+»).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Ввести невалидные данные в поле "Тема" .
+4. Ввести невалидное ФИО с поле "Исполнитель".
+5. Нажать на поле "Дата" .
+6. Ввести невалидную дату .
+7. Нажать на поле "Время".
+8. Ввести невалидное время .
+9. Вести невалидные данные в поле "Описание".
+10. Нажать "Сохранить".                                                                                                        </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Претензия с невалидными значениями не сохранена. Ограничено количество символов для полей ввода.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ39</t>
   </si>
   <si>
-    <t xml:space="preserve">Создание претензии с экрана претензий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Перейти на экран Претензии.
-2. Нажать на кнопку создания претензии.
-3. Ввести данные.
-4. Нажать "Сохранить".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Претензия отображается на экране претензий</t>
+    <t xml:space="preserve">Проверка полей ввода претензии с пустыми полями.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Перейти на экран "Претензии"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Нажать на кнопку создания претензии (значок «+»).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Оставить пустым поле "Тема" .
+4. Оставить пустым поле "Исполнитель".
+5. Оставить пустым поле "Дата".
+6. Оставить пустым поле "Время". 
+7. Оставить пустым поле "Описание" . 
+8. Нажать "Сохранить".                                                                                                      </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Претензия с незаполненными полями не сохранена. Выходит сообщение об обязательном заполнении полей формы.</t>
   </si>
   <si>
     <t xml:space="preserve">МХ40</t>
@@ -980,17 +1161,57 @@
     <t xml:space="preserve">Сортировка порядка новостей по дате (по новизне)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Перейти на экран Новостей.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Нажать кнопку фильтра.
+3. Выбрать из выпадающего списка каждую категорию поочередно.
+4. Заполнить оба поля «Даты», выбрать временной период.
+5. Нажать кнопку «Фильтр».
+6. Перейти в раздел «Панель управления новостями».
+7. Нажать кнопку фильтра.
+8. Выбрать любую категорию.
+9. Заполнить оба поля «Даты», выбрать временной период.
+10. Нажать 2 раза на кнопку «Активный».
+11. Нажать 2 раза на кнопку «Неактивный».
+12. Нажать кнопку «Фильтр».
+13. Нажать кнопку «Отмена».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Все поля и чек-боксы активны и работают.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ42</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Перейти на экран Новостей.
 2. Нажать кнопку смены порядка новостей.</t>
   </si>
   <si>
-    <t xml:space="preserve">Последняя новость отображается вверху</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сортировка осуществляется, но новости отображаются по принципу новизны относительно одной произвольной фиксированной даты. Список новостей не доступен полностью.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ42</t>
+    <t xml:space="preserve">Последняя новость отображается вверху.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сортировка осуществляется, но новости отображаются по принципу новизны относительно одной произвольной фиксированной даты. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ43</t>
   </si>
   <si>
     <t xml:space="preserve">Фильтрация новостей «По категории».</t>
@@ -1006,7 +1227,7 @@
     <t xml:space="preserve">Виден экран с новостями, подходящими под каждую выбранную категорию.</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ43</t>
+    <t xml:space="preserve">МХ44</t>
   </si>
   <si>
     <t xml:space="preserve">Фильтрация новостей «По дате». </t>
@@ -1022,7 +1243,7 @@
     <t xml:space="preserve">Виден экран с новостями за выбранный период.</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ44</t>
+    <t xml:space="preserve">МХ45</t>
   </si>
   <si>
     <t xml:space="preserve">Фильтрация новостей без заполнения полей фильтра.</t>
@@ -1039,7 +1260,7 @@
     <t xml:space="preserve">Виден экран с новостями, отображаемыми в порядке новизны (от новых к старым).</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ45</t>
+    <t xml:space="preserve">МХ46</t>
   </si>
   <si>
     <t xml:space="preserve">Фильтрация новостей без выбора «Категории».</t>
@@ -1082,20 +1303,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Виден экран с новостями разных категорий за выбранный период.
+    <t xml:space="preserve">Виден экран с новостями разных категорий за выбранный период.
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ47</t>
   </si>
   <si>
     <t xml:space="preserve">Раздел "Панель управления новостями"</t>
@@ -1108,49 +1320,129 @@
 2. Нажать на кнопку управления новостями.</t>
   </si>
   <si>
-    <t xml:space="preserve">Видны кнопки управления новостями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание новости</t>
+    <t xml:space="preserve">Видны кнопки управления новостями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание новости с заполнением полей валидными значениями (латиница, кириллица, символы, цифры, пробелы, текущая дата и текущее время (циферблат), выбор категории из списка, все поля обязательны для заполнения).</t>
   </si>
   <si>
     <t xml:space="preserve">1. Перейти на экран Новостей.
 2. Перейти на экран управления новостями.
-3. Нажать на кнопку создания новости.
-4. Ввести данные.
-5. Нажать "Сохранить".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новость отображается на экране новостей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка полей ввода при создании новости. Валидные значения (кириллические символы, текущая дата и текущее время (циферблат), 49, 50 символов).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Перейти на экран Новостей.
+3. Нажать на кнопку создания новости ( "+" ) .
+4. Выбрать категорию.
+5. Ввести валидные данные в поле "Заголовок".
+6. Нажать на поле "Дата публикации".
+7. Нажать на "ок" date picker.
+8. Нажать на поле "время".
+9. Нажать на "ок" time picker.
+10. Ввести валидные данные в поле "Описание".
+11. Нажать "Сохранить".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новость отображается на экране новостей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Категории в выпадающем списке на русском языке. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание новости с заполнением полей невалидными значениями (дата &gt;24 часов и &gt;60 минут, &gt;51 символа в названии новости).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Перейти на экран Новостей.
 2. Перейти на экран управления новостями.
 3. Нажать кнопку "лист с карандашом".
 4. Нажать кнопку создать новость ( "+" ).
-5. Ввести валидные данные в поле "Категория".
-6. Ввести валидные данные в поле "Заголовок".
+5. Ввести невалидные значения в поле "Категория".
+6. Ввести невалидные данные в поле "Заголовок".
 7. Нажать на поле "Дата публикации".
-8. Нажать на "ок" date picker.
+8. Ввести </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">невалидную дату</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
 9. Нажать на поле "время".
-10. Нажать на "ок" time picker.
-11. Ввести валидные данные в поле "Описание".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">10. Ввести невалидное время.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11. Ввести невалидные данные в поле "Описание".
 12. Нажать на кнопку "Сохранить". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создана новая новость с раннее введенными данными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ49</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Новость не сохранена. Появляется сообщение, что сохранение невозможно.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">В поле «Заголовок» возможно ввести более 51 символа. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Нет возможности проверить отображение валидационного сообщения. Приложение его отображает, но не находит ни по тексту, ни по селектору. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ50</t>
   </si>
   <si>
     <t xml:space="preserve">Создание новости без категории.</t>
@@ -1170,10 +1462,13 @@
 12. Нажать на кнопку "Сохранить". </t>
   </si>
   <si>
-    <t xml:space="preserve">На экране появляется всплывающее окно с текстом "Заполните пустые поля".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ50</t>
+    <t xml:space="preserve">Новость не сохранена. На экране появляется всплывающее окно с текстом "Заполните пустые поля".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет возможности проверить отображение валидационного сообщения. Приложение его отображает, но не находит ни по тексту, ни по селектору. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ51</t>
   </si>
   <si>
     <t xml:space="preserve">Создание новости с пустым полем «Описание».</t>
@@ -1222,7 +1517,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">МХ51</t>
+    <t xml:space="preserve">МХ52</t>
   </si>
   <si>
     <t xml:space="preserve">Создание новости без даты.</t>
@@ -1271,7 +1566,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">МХ52</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Новость не сохранена. Н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">а экране появляется всплывающее окно с текстом "Заполните пустые поля".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ53</t>
   </si>
   <si>
     <t xml:space="preserve">Ввод &gt; 24 в поле «Часы» при создании новости.</t>
@@ -1292,10 +1609,29 @@
 13. Нажать «ок». </t>
   </si>
   <si>
-    <t xml:space="preserve">Появляется сообщение "Введите действительное значение времени".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ53</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Новость не сохранена. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Появляется сообщение "Введите допустимое время".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ54</t>
   </si>
   <si>
     <t xml:space="preserve">Ввод &gt; 60 в поле минуты при создании новости.</t>
@@ -1316,7 +1652,39 @@
 13. Нажать «ок». </t>
   </si>
   <si>
-    <t xml:space="preserve">МХ54</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Новость не сохранена. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Появляется сообщение </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Введите допустимое время".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ55</t>
   </si>
   <si>
     <t xml:space="preserve">Отмена выбора времени в разделе циферблат при создании новости.</t>
@@ -1356,7 +1724,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">МХ55</t>
+    <t xml:space="preserve">МХ56</t>
   </si>
   <si>
     <t xml:space="preserve">Редактирование новости</t>
@@ -1368,7 +1736,7 @@
 4. Нажать "Сохранить".</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ56</t>
+    <t xml:space="preserve">МХ57</t>
   </si>
   <si>
     <t xml:space="preserve">Удаление новости</t>
@@ -1382,10 +1750,10 @@
 6. Проверить наличие/отсутствие удаленной новости.</t>
   </si>
   <si>
-    <t xml:space="preserve">Новость удалена и не отображается на экране новостей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ57</t>
+    <t xml:space="preserve">Новость удалена и не отображается на экране новостей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ58</t>
   </si>
   <si>
     <t xml:space="preserve">Блок "О приложении"</t>
@@ -1398,10 +1766,10 @@
 2. Перейти к политике конфиденциальности по ссылке.</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход по ссылке к политике конфиденциальности </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ58</t>
+    <t xml:space="preserve">Успешный переход по ссылке к политике конфиденциальности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ59</t>
   </si>
   <si>
     <t xml:space="preserve">Переход к пользовательскому соглашению по ссылке</t>
@@ -1411,10 +1779,10 @@
 2. Перейти к  к пользовательскому соглашению по ссылке.</t>
   </si>
   <si>
-    <t xml:space="preserve">Успешный переход по ссылке к пользовательскому соглашению</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МХ59</t>
+    <t xml:space="preserve">Успешный переход по ссылке к пользовательскому соглашению.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МХ60</t>
   </si>
   <si>
     <t xml:space="preserve">Блок "Тематические цитаты"</t>
@@ -1431,7 +1799,7 @@
 3. Нажать повторно на одну из цитат.</t>
   </si>
   <si>
-    <t xml:space="preserve">Нажатая цитата разворачивается и сворачивается по клику</t>
+    <t xml:space="preserve">Нажатая цитата разворачивается и сворачивается по клику.</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1981,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1682,26 +2050,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1719,10 +2067,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1818,17 +2162,17 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.99"/>
@@ -1917,7 +2261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="52.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1937,18 +2281,20 @@
       <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="39.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="53.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>12</v>
@@ -1957,23 +2303,25 @@
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
@@ -1982,23 +2330,25 @@
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>12</v>
@@ -2007,23 +2357,25 @@
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="49.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="75.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
@@ -2032,23 +2384,25 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="49.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="73.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>12</v>
@@ -2057,23 +2411,25 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>12</v>
@@ -2082,23 +2438,25 @@
         <v>13</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
@@ -2107,23 +2465,25 @@
         <v>13</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="59.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
@@ -2132,187 +2492,189 @@
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="58.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="63.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="E16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="G16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="true" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="21" customFormat="true" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>64</v>
+      <c r="E19" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="13" t="s">
@@ -2321,23 +2683,23 @@
     </row>
     <row r="20" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>64</v>
+      <c r="E20" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="13" t="s">
@@ -2346,23 +2708,23 @@
     </row>
     <row r="21" customFormat="false" ht="29.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>64</v>
+      <c r="E21" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="13" t="s">
@@ -2371,146 +2733,144 @@
     </row>
     <row r="22" customFormat="false" ht="41.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>64</v>
+      <c r="E22" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" s="21" customFormat="true" ht="139.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" s="21" customFormat="true" ht="121.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="63.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" s="21" customFormat="true" ht="99.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="63.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="22" t="s">
         <v>114</v>
       </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>64</v>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>116</v>
@@ -2523,19 +2883,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>64</v>
+      <c r="D28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>120</v>
@@ -2548,96 +2908,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="45.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="45.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>64</v>
+        <v>128</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>64</v>
+        <v>132</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="45.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="11" t="s">
         <v>135</v>
       </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>64</v>
+      <c r="D32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>137</v>
@@ -2658,11 +3016,11 @@
       <c r="C33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>64</v>
+      <c r="D33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>141</v>
@@ -2683,11 +3041,11 @@
       <c r="C34" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>64</v>
+      <c r="D34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>145</v>
@@ -2708,16 +3066,16 @@
       <c r="C35" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>64</v>
+      <c r="D35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="16" t="s">
         <v>150</v>
       </c>
       <c r="H35" s="11"/>
@@ -2725,302 +3083,300 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="91.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="C36" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>64</v>
+        <v>153</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="G36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="I36" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>64</v>
+        <v>158</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="124.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>160</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>64</v>
+        <v>162</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="121.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="90.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="B40" s="18"/>
       <c r="C40" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>64</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="B41" s="18"/>
       <c r="C41" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>64</v>
+        <v>174</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="51.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="166.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>64</v>
+        <v>179</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G42" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="53.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" s="21" customFormat="true" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="17" t="s">
+      <c r="D43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" s="21" customFormat="true" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" s="21" customFormat="true" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="D45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" s="21" customFormat="true" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="D46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G46" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>64</v>
+      <c r="D47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>200</v>
@@ -3028,349 +3384,383 @@
       <c r="G47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="20"/>
+      <c r="I47" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="34.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="21" t="s">
+        <v>203</v>
+      </c>
       <c r="C48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>64</v>
+        <v>204</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="17" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="D49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="I49" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="141.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="I50" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H51" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="I51" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" s="21" customFormat="true" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="146.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" s="21" customFormat="true" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" s="21" customFormat="true" ht="143.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="45.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" s="21" customFormat="true" ht="82.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="56.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="82.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H58" s="29"/>
+        <v>243</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="11"/>
       <c r="I58" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="C59" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>64</v>
+        <v>249</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H59" s="29"/>
+        <v>251</v>
+      </c>
+      <c r="H59" s="23"/>
       <c r="I59" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="H60" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H60" s="23"/>
       <c r="I60" s="13" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
